--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34144531668272</v>
+        <v>1.3428465</v>
       </c>
       <c r="H2">
-        <v>1.34144531668272</v>
+        <v>2.685693</v>
       </c>
       <c r="I2">
-        <v>0.05931844459394673</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J2">
-        <v>0.05931844459394673</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N2">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="O2">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="P2">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="Q2">
-        <v>4.557116722379321</v>
+        <v>0.0449661102835</v>
       </c>
       <c r="R2">
-        <v>4.557116722379321</v>
+        <v>0.269796661701</v>
       </c>
       <c r="S2">
-        <v>0.02273614579344648</v>
+        <v>0.0001782522045497888</v>
       </c>
       <c r="T2">
-        <v>0.02273614579344648</v>
+        <v>0.0001227470735816331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34144531668272</v>
+        <v>1.3428465</v>
       </c>
       <c r="H3">
-        <v>1.34144531668272</v>
+        <v>2.685693</v>
       </c>
       <c r="I3">
-        <v>0.05931844459394673</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J3">
-        <v>0.05931844459394673</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="N3">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="O3">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="P3">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="Q3">
-        <v>7.332368780591183</v>
+        <v>6.2940491159175</v>
       </c>
       <c r="R3">
-        <v>7.332368780591183</v>
+        <v>37.76429469550499</v>
       </c>
       <c r="S3">
-        <v>0.03658229880050024</v>
+        <v>0.02495052659399422</v>
       </c>
       <c r="T3">
-        <v>0.03658229880050024</v>
+        <v>0.01718129731673565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8055762852930221</v>
+        <v>1.3428465</v>
       </c>
       <c r="H4">
-        <v>0.8055762852930221</v>
+        <v>2.685693</v>
       </c>
       <c r="I4">
-        <v>0.03562242280849815</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J4">
-        <v>0.03562242280849815</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.39716920675431</v>
+        <v>5.748987333333333</v>
       </c>
       <c r="N4">
-        <v>3.39716920675431</v>
+        <v>17.246962</v>
       </c>
       <c r="O4">
-        <v>0.383289648760727</v>
+        <v>0.5461548493801389</v>
       </c>
       <c r="P4">
-        <v>0.383289648760727</v>
+        <v>0.5471377135049664</v>
       </c>
       <c r="Q4">
-        <v>2.736678950088979</v>
+        <v>7.720007519110998</v>
       </c>
       <c r="R4">
-        <v>2.736678950088979</v>
+        <v>46.32004511466599</v>
       </c>
       <c r="S4">
-        <v>0.01365370592627537</v>
+        <v>0.03060323320710786</v>
       </c>
       <c r="T4">
-        <v>0.01365370592627537</v>
+        <v>0.0210738337166512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8055762852930221</v>
+        <v>1.3428465</v>
       </c>
       <c r="H5">
-        <v>0.8055762852930221</v>
+        <v>2.685693</v>
       </c>
       <c r="I5">
-        <v>0.03562242280849815</v>
+        <v>0.05603398604231227</v>
       </c>
       <c r="J5">
-        <v>0.03562242280849815</v>
+        <v>0.03851650726405265</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>5.46602137962918</v>
+        <v>0.0567275</v>
       </c>
       <c r="N5">
-        <v>5.46602137962918</v>
+        <v>0.113455</v>
       </c>
       <c r="O5">
-        <v>0.616710351239273</v>
+        <v>0.005389122887534367</v>
       </c>
       <c r="P5">
-        <v>0.616710351239273</v>
+        <v>0.00359921412743334</v>
       </c>
       <c r="Q5">
-        <v>4.403297198333914</v>
+        <v>0.07617632482874999</v>
       </c>
       <c r="R5">
-        <v>4.403297198333914</v>
+        <v>0.304705299315</v>
       </c>
       <c r="S5">
-        <v>0.02196871688222278</v>
+        <v>0.0003019740366604063</v>
       </c>
       <c r="T5">
-        <v>0.02196871688222278</v>
+        <v>0.0001386291570841672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,184 +782,184 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.40502200638755</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H6">
-        <v>6.40502200638755</v>
+        <v>2.510408</v>
       </c>
       <c r="I6">
-        <v>0.2832287967939376</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J6">
-        <v>0.2832287967939376</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N6">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="O6">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="P6">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="Q6">
-        <v>21.75894352868349</v>
+        <v>0.02802089516177778</v>
       </c>
       <c r="R6">
-        <v>21.75894352868349</v>
+        <v>0.252188056456</v>
       </c>
       <c r="S6">
-        <v>0.1085586660420716</v>
+        <v>0.0001110789059706194</v>
       </c>
       <c r="T6">
-        <v>0.1085586660420716</v>
+        <v>0.0001147358374527246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.40502200638755</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H7">
-        <v>6.40502200638755</v>
+        <v>2.510408</v>
       </c>
       <c r="I7">
-        <v>0.2832287967939376</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J7">
-        <v>0.2832287967939376</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="N7">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="O7">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="P7">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="Q7">
-        <v>35.00998722390973</v>
+        <v>3.92217359492</v>
       </c>
       <c r="R7">
-        <v>35.00998722390973</v>
+        <v>35.29956235428</v>
       </c>
       <c r="S7">
-        <v>0.1746701307518659</v>
+        <v>0.01554806687777936</v>
       </c>
       <c r="T7">
-        <v>0.1746701307518659</v>
+        <v>0.01605993917931488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.2642046111686</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H8">
-        <v>13.2642046111686</v>
+        <v>2.510408</v>
       </c>
       <c r="I8">
-        <v>0.5865404847482686</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J8">
-        <v>0.5865404847482686</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.39716920675431</v>
+        <v>5.748987333333333</v>
       </c>
       <c r="N8">
-        <v>3.39716920675431</v>
+        <v>17.246962</v>
       </c>
       <c r="O8">
-        <v>0.383289648760727</v>
+        <v>0.5461548493801389</v>
       </c>
       <c r="P8">
-        <v>0.383289648760727</v>
+        <v>0.5471377135049664</v>
       </c>
       <c r="Q8">
-        <v>45.06074745715049</v>
+        <v>4.810767931166222</v>
       </c>
       <c r="R8">
-        <v>45.06074745715049</v>
+        <v>43.296911380496</v>
       </c>
       <c r="S8">
-        <v>0.2248148963831104</v>
+        <v>0.01907058413327938</v>
       </c>
       <c r="T8">
-        <v>0.2248148963831104</v>
+        <v>0.01969842448595238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.2642046111686</v>
+        <v>0.8368026666666667</v>
       </c>
       <c r="H9">
-        <v>13.2642046111686</v>
+        <v>2.510408</v>
       </c>
       <c r="I9">
-        <v>0.5865404847482686</v>
+        <v>0.03491790680779202</v>
       </c>
       <c r="J9">
-        <v>0.5865404847482686</v>
+        <v>0.03600268086029784</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>5.46602137962918</v>
+        <v>0.0567275</v>
       </c>
       <c r="N9">
-        <v>5.46602137962918</v>
+        <v>0.113455</v>
       </c>
       <c r="O9">
-        <v>0.616710351239273</v>
+        <v>0.005389122887534367</v>
       </c>
       <c r="P9">
-        <v>0.616710351239273</v>
+        <v>0.00359921412743334</v>
       </c>
       <c r="Q9">
-        <v>72.50242598842352</v>
+        <v>0.04746972327333333</v>
       </c>
       <c r="R9">
-        <v>72.50242598842352</v>
+        <v>0.28481833964</v>
       </c>
       <c r="S9">
-        <v>0.3617255883651582</v>
+        <v>0.0001881768907626641</v>
       </c>
       <c r="T9">
-        <v>0.3617255883651582</v>
+        <v>0.0001295813575778579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.296955532361334</v>
+        <v>7.339706333333333</v>
       </c>
       <c r="H10">
-        <v>0.296955532361334</v>
+        <v>22.019119</v>
       </c>
       <c r="I10">
-        <v>0.01313131446669924</v>
+        <v>0.3062695566743265</v>
       </c>
       <c r="J10">
-        <v>0.01313131446669924</v>
+        <v>0.315784252672044</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>3.39716920675431</v>
+        <v>0.03348566666666667</v>
       </c>
       <c r="N10">
-        <v>3.39716920675431</v>
+        <v>0.100457</v>
       </c>
       <c r="O10">
-        <v>0.383289648760727</v>
+        <v>0.00318114446498929</v>
       </c>
       <c r="P10">
-        <v>0.383289648760727</v>
+        <v>0.003186869275039188</v>
       </c>
       <c r="Q10">
-        <v>1.008808190313257</v>
+        <v>0.2457749597092223</v>
       </c>
       <c r="R10">
-        <v>1.008808190313257</v>
+        <v>2.211974637383</v>
       </c>
       <c r="S10">
-        <v>0.005033096909707805</v>
+        <v>0.0009742877050092575</v>
       </c>
       <c r="T10">
-        <v>0.005033096909707805</v>
+        <v>0.001006363132381749</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.296955532361334</v>
+        <v>7.339706333333333</v>
       </c>
       <c r="H11">
-        <v>0.296955532361334</v>
+        <v>22.019119</v>
       </c>
       <c r="I11">
-        <v>0.01313131446669924</v>
+        <v>0.3062695566743265</v>
       </c>
       <c r="J11">
-        <v>0.01313131446669924</v>
+        <v>0.315784252672044</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.46602137962918</v>
+        <v>4.687095</v>
       </c>
       <c r="N11">
-        <v>5.46602137962918</v>
+        <v>14.061285</v>
       </c>
       <c r="O11">
-        <v>0.616710351239273</v>
+        <v>0.4452748832673376</v>
       </c>
       <c r="P11">
-        <v>0.616710351239273</v>
+        <v>0.446076203092561</v>
       </c>
       <c r="Q11">
-        <v>1.623165288686216</v>
+        <v>34.401900856435</v>
       </c>
       <c r="R11">
-        <v>1.623165288686216</v>
+        <v>309.617107707915</v>
       </c>
       <c r="S11">
-        <v>0.008098217556991435</v>
+        <v>0.1363741410965</v>
       </c>
       <c r="T11">
-        <v>0.008098217556991435</v>
+        <v>0.1408638404283673</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.501099874328462</v>
+        <v>7.339706333333333</v>
       </c>
       <c r="H12">
-        <v>0.501099874328462</v>
+        <v>22.019119</v>
       </c>
       <c r="I12">
-        <v>0.02215853658864948</v>
+        <v>0.3062695566743265</v>
       </c>
       <c r="J12">
-        <v>0.02215853658864948</v>
+        <v>0.315784252672044</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.39716920675431</v>
+        <v>5.748987333333333</v>
       </c>
       <c r="N12">
-        <v>3.39716920675431</v>
+        <v>17.246962</v>
       </c>
       <c r="O12">
-        <v>0.383289648760727</v>
+        <v>0.5461548493801389</v>
       </c>
       <c r="P12">
-        <v>0.383289648760727</v>
+        <v>0.5471377135049664</v>
       </c>
       <c r="Q12">
-        <v>1.702321062577106</v>
+        <v>42.19587874071977</v>
       </c>
       <c r="R12">
-        <v>1.702321062577106</v>
+        <v>379.762908666478</v>
       </c>
       <c r="S12">
-        <v>0.008493137706115178</v>
+        <v>0.1672706035951887</v>
       </c>
       <c r="T12">
-        <v>0.008493137706115178</v>
+        <v>0.1727774739678568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.339706333333333</v>
+      </c>
+      <c r="H13">
+        <v>22.019119</v>
+      </c>
+      <c r="I13">
+        <v>0.3062695566743265</v>
+      </c>
+      <c r="J13">
+        <v>0.315784252672044</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.0567275</v>
+      </c>
+      <c r="N13">
+        <v>0.113455</v>
+      </c>
+      <c r="O13">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="P13">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="Q13">
+        <v>0.4163631910241666</v>
+      </c>
+      <c r="R13">
+        <v>2.498179146145</v>
+      </c>
+      <c r="S13">
+        <v>0.001650524277628617</v>
+      </c>
+      <c r="T13">
+        <v>0.0011365751434382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.501099874328462</v>
-      </c>
-      <c r="H13">
-        <v>0.501099874328462</v>
-      </c>
-      <c r="I13">
-        <v>0.02215853658864948</v>
-      </c>
-      <c r="J13">
-        <v>0.02215853658864948</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="N13">
-        <v>5.46602137962918</v>
-      </c>
-      <c r="O13">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="P13">
-        <v>0.616710351239273</v>
-      </c>
-      <c r="Q13">
-        <v>2.739022626408869</v>
-      </c>
-      <c r="R13">
-        <v>2.739022626408869</v>
-      </c>
-      <c r="S13">
-        <v>0.0136653988825343</v>
-      </c>
-      <c r="T13">
-        <v>0.0136653988825343</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H14">
+        <v>39.936332</v>
+      </c>
+      <c r="I14">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J14">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.100457</v>
+      </c>
+      <c r="O14">
+        <v>0.00318114446498929</v>
+      </c>
+      <c r="P14">
+        <v>0.003186869275039188</v>
+      </c>
+      <c r="Q14">
+        <v>0.4457649004137779</v>
+      </c>
+      <c r="R14">
+        <v>4.011884103724</v>
+      </c>
+      <c r="S14">
+        <v>0.001767076932131925</v>
+      </c>
+      <c r="T14">
+        <v>0.001825252507484857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H15">
+        <v>39.936332</v>
+      </c>
+      <c r="I15">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J15">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.687095</v>
+      </c>
+      <c r="N15">
+        <v>14.061285</v>
+      </c>
+      <c r="O15">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="P15">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="Q15">
+        <v>62.39512734518001</v>
+      </c>
+      <c r="R15">
+        <v>561.55614610662</v>
+      </c>
+      <c r="S15">
+        <v>0.2473433644209229</v>
+      </c>
+      <c r="T15">
+        <v>0.2554863842709738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H16">
+        <v>39.936332</v>
+      </c>
+      <c r="I16">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J16">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="N16">
+        <v>17.246962</v>
+      </c>
+      <c r="O16">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="P16">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="Q16">
+        <v>76.53115560259822</v>
+      </c>
+      <c r="R16">
+        <v>688.780400423384</v>
+      </c>
+      <c r="S16">
+        <v>0.3033806374822648</v>
+      </c>
+      <c r="T16">
+        <v>0.3133685122688916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.31211066666667</v>
+      </c>
+      <c r="H17">
+        <v>39.936332</v>
+      </c>
+      <c r="I17">
+        <v>0.5554846538973116</v>
+      </c>
+      <c r="J17">
+        <v>0.5727415685923963</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.0567275</v>
+      </c>
+      <c r="N17">
+        <v>0.113455</v>
+      </c>
+      <c r="O17">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="P17">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="Q17">
+        <v>0.7551627578433334</v>
+      </c>
+      <c r="R17">
+        <v>4.53097654706</v>
+      </c>
+      <c r="S17">
+        <v>0.002993575061992108</v>
+      </c>
+      <c r="T17">
+        <v>0.002061419545046084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.310028</v>
+      </c>
+      <c r="H18">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J18">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.100457</v>
+      </c>
+      <c r="O18">
+        <v>0.00318114446498929</v>
+      </c>
+      <c r="P18">
+        <v>0.003186869275039188</v>
+      </c>
+      <c r="Q18">
+        <v>0.01038149426533333</v>
+      </c>
+      <c r="R18">
+        <v>0.09343344838800002</v>
+      </c>
+      <c r="S18">
+        <v>4.115375396380892E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.250861479145221E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.310028</v>
+      </c>
+      <c r="H19">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J19">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.687095</v>
+      </c>
+      <c r="N19">
+        <v>14.061285</v>
+      </c>
+      <c r="O19">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="P19">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="Q19">
+        <v>1.45313068866</v>
+      </c>
+      <c r="R19">
+        <v>13.07817619794</v>
+      </c>
+      <c r="S19">
+        <v>0.005760421506764057</v>
+      </c>
+      <c r="T19">
+        <v>0.005950065675242392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.310028</v>
+      </c>
+      <c r="H20">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J20">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="N20">
+        <v>17.246962</v>
+      </c>
+      <c r="O20">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="P20">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="Q20">
+        <v>1.782347044978667</v>
+      </c>
+      <c r="R20">
+        <v>16.041123404808</v>
+      </c>
+      <c r="S20">
+        <v>0.00706548305017233</v>
+      </c>
+      <c r="T20">
+        <v>0.0072980923577333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.310028</v>
+      </c>
+      <c r="H21">
+        <v>0.9300840000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.01293677618754339</v>
+      </c>
+      <c r="J21">
+        <v>0.01333867539669618</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0567275</v>
+      </c>
+      <c r="N21">
+        <v>0.113455</v>
+      </c>
+      <c r="O21">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="P21">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="Q21">
+        <v>0.01758711337</v>
+      </c>
+      <c r="R21">
+        <v>0.10552268022</v>
+      </c>
+      <c r="S21">
+        <v>6.971787664319969E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.80087489290364E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8233635</v>
+      </c>
+      <c r="H22">
+        <v>1.646727</v>
+      </c>
+      <c r="I22">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J22">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03348566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.100457</v>
+      </c>
+      <c r="O22">
+        <v>0.00318114446498929</v>
+      </c>
+      <c r="P22">
+        <v>0.003186869275039188</v>
+      </c>
+      <c r="Q22">
+        <v>0.0275708757065</v>
+      </c>
+      <c r="R22">
+        <v>0.165425254239</v>
+      </c>
+      <c r="S22">
+        <v>0.0001092949633638916</v>
+      </c>
+      <c r="T22">
+        <v>7.526210934677267E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8233635</v>
+      </c>
+      <c r="H23">
+        <v>1.646727</v>
+      </c>
+      <c r="I23">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J23">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.687095</v>
+      </c>
+      <c r="N23">
+        <v>14.061285</v>
+      </c>
+      <c r="O23">
+        <v>0.4452748832673376</v>
+      </c>
+      <c r="P23">
+        <v>0.446076203092561</v>
+      </c>
+      <c r="Q23">
+        <v>3.8591829440325</v>
+      </c>
+      <c r="R23">
+        <v>23.155097664195</v>
+      </c>
+      <c r="S23">
+        <v>0.01529836277137719</v>
+      </c>
+      <c r="T23">
+        <v>0.01053467622192714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8233635</v>
+      </c>
+      <c r="H24">
+        <v>1.646727</v>
+      </c>
+      <c r="I24">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J24">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.748987333333333</v>
+      </c>
+      <c r="N24">
+        <v>17.246962</v>
+      </c>
+      <c r="O24">
+        <v>0.5461548493801389</v>
+      </c>
+      <c r="P24">
+        <v>0.5471377135049664</v>
+      </c>
+      <c r="Q24">
+        <v>4.733506332229</v>
+      </c>
+      <c r="R24">
+        <v>28.401037993374</v>
+      </c>
+      <c r="S24">
+        <v>0.01876430791212589</v>
+      </c>
+      <c r="T24">
+        <v>0.01292137670788131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8233635</v>
+      </c>
+      <c r="H25">
+        <v>1.646727</v>
+      </c>
+      <c r="I25">
+        <v>0.03435712039071433</v>
+      </c>
+      <c r="J25">
+        <v>0.02361631521451322</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.0567275</v>
+      </c>
+      <c r="N25">
+        <v>0.113455</v>
+      </c>
+      <c r="O25">
+        <v>0.005389122887534367</v>
+      </c>
+      <c r="P25">
+        <v>0.00359921412743334</v>
+      </c>
+      <c r="Q25">
+        <v>0.04670735294625</v>
+      </c>
+      <c r="R25">
+        <v>0.186829411785</v>
+      </c>
+      <c r="S25">
+        <v>0.0001851547438473723</v>
+      </c>
+      <c r="T25">
+        <v>8.50001753579949E-05</v>
       </c>
     </row>
   </sheetData>
